--- a/Tables_Paper.xlsx
+++ b/Tables_Paper.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t xml:space="preserve">Program </t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Percent 2-3</t>
+  </si>
+  <si>
+    <t>Disc: 0-1</t>
+  </si>
+  <si>
+    <t>Disc: 1-2</t>
+  </si>
+  <si>
+    <t>Disc: 2-3</t>
   </si>
 </sst>
 </file>
@@ -261,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -291,6 +300,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +612,7 @@
     <col min="24" max="24" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -672,8 +682,32 @@
       <c r="Y1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AA1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -754,8 +788,36 @@
         <f>SUM(S2,U2,W2)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>(AB2/22)*100</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="12">
+        <f>(AD2/22)*100</f>
+        <v>77.272727272727266</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="12">
+        <f>(AF2/22)*100</f>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AH2">
+        <f>SUM(AB2,AD2,AF2)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -836,8 +898,36 @@
         <f t="shared" ref="Y3:Y5" si="4">SUM(S3,U3,W3)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>(AB3/13)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>7</v>
+      </c>
+      <c r="AE3" s="13">
+        <f>(AD3/13)*100</f>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="13">
+        <f>(AF3/13)*100</f>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH5" si="5">SUM(AB3,AD3,AF3)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -918,8 +1008,36 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>(AB4/17)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>12</v>
+      </c>
+      <c r="AE4" s="13">
+        <f>(AD4/17)*100</f>
+        <v>70.588235294117652</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="13">
+        <f>(AF4/17)*100</f>
+        <v>29.411764705882355</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1000,8 +1118,36 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <f>(AB5/7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="13">
+        <f>(AD5/5)*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="13">
+        <f>(AF5/7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1082,8 +1228,36 @@
         <f>SUM(S6,U6,W6)</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>(AB6/65)*100</f>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>48</v>
+      </c>
+      <c r="AE6" s="13">
+        <f>(AD6/65)*100</f>
+        <v>73.846153846153854</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>16</v>
+      </c>
+      <c r="AG6" s="13">
+        <f>(AF6/65)*100</f>
+        <v>24.615384615384617</v>
+      </c>
+      <c r="AH6">
+        <f>SUM(AB6,AD6,AF6)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1282,20 @@
         <f t="shared" si="2"/>
         <v>1.4475402699172835</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB7">
+        <f>SUM(1,)</f>
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <f>SUM(17, 1, 1, 7, 12, 5, 5)</f>
+        <v>48</v>
+      </c>
+      <c r="AF7">
+        <f>SUM(4, 1, 6, 5)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1320,9 @@
         <f t="shared" si="2"/>
         <v>17.83848498040923</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD8" s="21"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1161,7 +1348,7 @@
         <v>7.5424466695690029</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -1187,7 +1374,7 @@
         <v>0.54418807139747494</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUM(B2:B10)</f>
         <v>137</v>
@@ -1201,7 +1388,7 @@
         <v>9188</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -1209,7 +1396,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1219,7 +1406,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1229,7 +1416,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1361,7 +1548,7 @@
         <v>53.846153846153847</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24:H26" si="5">SUM(B24,D24,F24)</f>
+        <f t="shared" ref="H24:H26" si="6">SUM(B24,D24,F24)</f>
         <v>13</v>
       </c>
     </row>
@@ -1391,7 +1578,7 @@
         <v>63.157894736842103</v>
       </c>
       <c r="H25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -1421,7 +1608,7 @@
         <v>42.857142857142854</v>
       </c>
       <c r="H26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>

--- a/Tables_Paper.xlsx
+++ b/Tables_Paper.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
   <si>
     <t xml:space="preserve">Program </t>
   </si>
@@ -123,6 +123,24 @@
   </si>
   <si>
     <t>Disc: 2-3</t>
+  </si>
+  <si>
+    <t>IntCode 2</t>
+  </si>
+  <si>
+    <t>IntCode 1</t>
+  </si>
+  <si>
+    <t>IntCode 3</t>
+  </si>
+  <si>
+    <t>Percent 1</t>
+  </si>
+  <si>
+    <t>Percent 2</t>
+  </si>
+  <si>
+    <t>Percent 3</t>
   </si>
 </sst>
 </file>
@@ -167,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -266,11 +284,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -301,6 +330,10 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,9 +643,10 @@
     <col min="22" max="22" width="7.6640625" customWidth="1"/>
     <col min="23" max="23" width="5.88671875" customWidth="1"/>
     <col min="24" max="24" width="7.44140625" customWidth="1"/>
+    <col min="37" max="42" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -706,8 +740,32 @@
       <c r="AH1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AJ1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -816,8 +874,35 @@
         <f>SUM(AB2,AD2,AF2)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="23">
+        <v>26</v>
+      </c>
+      <c r="AL2" s="23">
+        <f>AK2/37*100</f>
+        <v>70.270270270270274</v>
+      </c>
+      <c r="AM2" s="23">
+        <v>15</v>
+      </c>
+      <c r="AN2" s="23">
+        <f>AM2/37*100</f>
+        <v>40.54054054054054</v>
+      </c>
+      <c r="AO2" s="23">
+        <v>16</v>
+      </c>
+      <c r="AP2" s="23">
+        <f>AO2/37*100</f>
+        <v>43.243243243243242</v>
+      </c>
+      <c r="AQ2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -926,8 +1011,35 @@
         <f t="shared" ref="AH3:AH5" si="5">SUM(AB3,AD3,AF3)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK3" s="23">
+        <v>9</v>
+      </c>
+      <c r="AL3" s="23">
+        <f>AK3/26*100</f>
+        <v>34.615384615384613</v>
+      </c>
+      <c r="AM3" s="23">
+        <v>8</v>
+      </c>
+      <c r="AN3" s="23">
+        <f>AM3/26*100</f>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="AO3" s="23">
+        <v>16</v>
+      </c>
+      <c r="AP3" s="23">
+        <f>AO3/26*100</f>
+        <v>61.53846153846154</v>
+      </c>
+      <c r="AQ3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1036,8 +1148,35 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK4" s="23">
+        <v>17</v>
+      </c>
+      <c r="AL4" s="23">
+        <f>AK4/35*100</f>
+        <v>48.571428571428569</v>
+      </c>
+      <c r="AM4" s="23">
+        <v>12</v>
+      </c>
+      <c r="AN4" s="23">
+        <f>AM4/35*100</f>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="AO4" s="23">
+        <v>12</v>
+      </c>
+      <c r="AP4" s="23">
+        <f>AO4/35*100</f>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="AQ4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1146,8 +1285,35 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK5" s="23">
+        <v>6</v>
+      </c>
+      <c r="AL5" s="23">
+        <f>AK5/22*100</f>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="AM5" s="23">
+        <v>7</v>
+      </c>
+      <c r="AN5" s="23">
+        <f>AM5/22*100</f>
+        <v>31.818181818181817</v>
+      </c>
+      <c r="AO5" s="23">
+        <v>7</v>
+      </c>
+      <c r="AP5" s="23">
+        <f>AO5/22*100</f>
+        <v>31.818181818181817</v>
+      </c>
+      <c r="AQ5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1256,8 +1422,35 @@
         <f>SUM(AB6,AD6,AF6)</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK6" s="23">
+        <v>66</v>
+      </c>
+      <c r="AL6" s="23">
+        <f>AK6/137*100</f>
+        <v>48.175182481751825</v>
+      </c>
+      <c r="AM6" s="23">
+        <v>48</v>
+      </c>
+      <c r="AN6" s="23">
+        <f>AM6/137*100</f>
+        <v>35.036496350364963</v>
+      </c>
+      <c r="AO6" s="23">
+        <v>60</v>
+      </c>
+      <c r="AP6" s="23">
+        <f>AO6/137*100</f>
+        <v>43.79562043795621</v>
+      </c>
+      <c r="AQ6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1294,8 +1487,15 @@
         <f>SUM(4, 1, 6, 5)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="23"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="23"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -1322,7 +1522,7 @@
       </c>
       <c r="AD8" s="21"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1348,7 +1548,7 @@
         <v>7.5424466695690029</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -1374,7 +1574,7 @@
         <v>0.54418807139747494</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUM(B2:B10)</f>
         <v>137</v>
@@ -1388,7 +1588,7 @@
         <v>9188</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -1396,7 +1596,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1406,7 +1606,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1416,7 +1616,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>

--- a/Tables_Paper.xlsx
+++ b/Tables_Paper.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t xml:space="preserve">Program </t>
   </si>
@@ -141,13 +141,37 @@
   </si>
   <si>
     <t>Percent 3</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Natural Science Journal</t>
+  </si>
+  <si>
+    <t>Social Science Journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interdiscplinary/SES journal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Percent Natural</t>
+  </si>
+  <si>
+    <t>Percent Social</t>
+  </si>
+  <si>
+    <t>Percent SES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,16 +200,41 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FFB0B0B0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -295,11 +344,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -334,6 +403,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ27"/>
+  <dimension ref="A1:BN83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AR1" sqref="AR1"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AQ11" sqref="AQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,9 +735,10 @@
     <col min="23" max="23" width="5.88671875" customWidth="1"/>
     <col min="24" max="24" width="7.44140625" customWidth="1"/>
     <col min="37" max="42" width="9.5546875" customWidth="1"/>
+    <col min="53" max="66" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:63" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -764,8 +856,38 @@
       <c r="AQ1" s="22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AS1" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT1" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU1" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW1" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="26"/>
+      <c r="BD1" s="26"/>
+      <c r="BI1" s="26"/>
+      <c r="BJ1" s="26"/>
+      <c r="BK1" s="26"/>
+    </row>
+    <row r="2" spans="1:63" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -874,35 +996,71 @@
         <f>SUM(AB2,AD2,AF2)</f>
         <v>22</v>
       </c>
-      <c r="AJ2" s="23" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="23">
+      <c r="AK2" s="2">
         <v>26</v>
       </c>
-      <c r="AL2" s="23">
+      <c r="AL2" s="2">
         <f>AK2/37*100</f>
         <v>70.270270270270274</v>
       </c>
-      <c r="AM2" s="23">
+      <c r="AM2" s="2">
         <v>15</v>
       </c>
-      <c r="AN2" s="23">
+      <c r="AN2" s="2">
         <f>AM2/37*100</f>
         <v>40.54054054054054</v>
       </c>
-      <c r="AO2" s="23">
+      <c r="AO2" s="2">
         <v>16</v>
       </c>
-      <c r="AP2" s="23">
+      <c r="AP2" s="2">
         <f>AO2/37*100</f>
         <v>43.243243243243242</v>
       </c>
       <c r="AQ2">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>82</v>
+      </c>
+      <c r="AU2" s="2">
+        <f>(AT2/162)*100</f>
+        <v>50.617283950617285</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>15</v>
+      </c>
+      <c r="AW2" s="2">
+        <f>(AV2/162)*100</f>
+        <v>9.2592592592592595</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>65</v>
+      </c>
+      <c r="AY2" s="2">
+        <f>(AX2/162)*100</f>
+        <v>40.123456790123456</v>
+      </c>
+      <c r="AZ2" s="23">
+        <f>SUM(AT2,AV2,AX2)</f>
+        <v>162</v>
+      </c>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="26"/>
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="26"/>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="28"/>
+      <c r="BK2" s="28"/>
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1011,35 +1169,71 @@
         <f t="shared" ref="AH3:AH5" si="5">SUM(AB3,AD3,AF3)</f>
         <v>13</v>
       </c>
-      <c r="AJ3" s="23" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK3" s="23">
+      <c r="AK3" s="4">
         <v>9</v>
       </c>
-      <c r="AL3" s="23">
+      <c r="AL3" s="4">
         <f>AK3/26*100</f>
         <v>34.615384615384613</v>
       </c>
-      <c r="AM3" s="23">
+      <c r="AM3" s="4">
         <v>8</v>
       </c>
-      <c r="AN3" s="23">
+      <c r="AN3" s="4">
         <f>AM3/26*100</f>
         <v>30.76923076923077</v>
       </c>
-      <c r="AO3" s="23">
+      <c r="AO3" s="4">
         <v>16</v>
       </c>
-      <c r="AP3" s="23">
+      <c r="AP3" s="4">
         <f>AO3/26*100</f>
         <v>61.53846153846154</v>
       </c>
       <c r="AQ3">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>77</v>
+      </c>
+      <c r="AU3" s="4">
+        <f>(AT3/109)*100</f>
+        <v>70.642201834862391</v>
+      </c>
+      <c r="AV3" s="4">
+        <v>7</v>
+      </c>
+      <c r="AW3" s="4">
+        <f>(AV3/109)*100</f>
+        <v>6.4220183486238538</v>
+      </c>
+      <c r="AX3" s="4">
+        <v>25</v>
+      </c>
+      <c r="AY3" s="4">
+        <f>(AX3/109)*100</f>
+        <v>22.935779816513762</v>
+      </c>
+      <c r="AZ3" s="23">
+        <f>SUM(AT3,AV3,AX3)</f>
+        <v>109</v>
+      </c>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="28"/>
+      <c r="BH3" s="27"/>
+      <c r="BI3" s="28"/>
+      <c r="BJ3" s="28"/>
+      <c r="BK3" s="28"/>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1148,35 +1342,71 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="AJ4" s="23" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AK4" s="23">
+      <c r="AK4" s="4">
         <v>17</v>
       </c>
-      <c r="AL4" s="23">
+      <c r="AL4" s="4">
         <f>AK4/35*100</f>
         <v>48.571428571428569</v>
       </c>
-      <c r="AM4" s="23">
+      <c r="AM4" s="4">
         <v>12</v>
       </c>
-      <c r="AN4" s="23">
+      <c r="AN4" s="4">
         <f>AM4/35*100</f>
         <v>34.285714285714285</v>
       </c>
-      <c r="AO4" s="23">
+      <c r="AO4" s="4">
         <v>12</v>
       </c>
-      <c r="AP4" s="23">
+      <c r="AP4" s="4">
         <f>AO4/35*100</f>
         <v>34.285714285714285</v>
       </c>
       <c r="AQ4">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>96</v>
+      </c>
+      <c r="AU4" s="4">
+        <f>(AT4/146)*100</f>
+        <v>65.753424657534239</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>7</v>
+      </c>
+      <c r="AW4" s="4">
+        <f>(AV4/146)*100</f>
+        <v>4.7945205479452051</v>
+      </c>
+      <c r="AX4" s="4">
+        <v>43</v>
+      </c>
+      <c r="AY4" s="4">
+        <f>(AX4/146)*100</f>
+        <v>29.452054794520549</v>
+      </c>
+      <c r="AZ4" s="23">
+        <f>SUM(AT4,AV4,AX4)</f>
+        <v>146</v>
+      </c>
+      <c r="BA4" s="27"/>
+      <c r="BB4" s="28"/>
+      <c r="BC4" s="28"/>
+      <c r="BD4" s="28"/>
+      <c r="BH4" s="27"/>
+      <c r="BI4" s="28"/>
+      <c r="BJ4" s="28"/>
+      <c r="BK4" s="28"/>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1285,35 +1515,71 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AJ5" s="23" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AK5" s="23">
+      <c r="AK5" s="4">
         <v>6</v>
       </c>
-      <c r="AL5" s="23">
+      <c r="AL5" s="4">
         <f>AK5/22*100</f>
         <v>27.27272727272727</v>
       </c>
-      <c r="AM5" s="23">
+      <c r="AM5" s="4">
         <v>7</v>
       </c>
-      <c r="AN5" s="23">
+      <c r="AN5" s="4">
         <f>AM5/22*100</f>
         <v>31.818181818181817</v>
       </c>
-      <c r="AO5" s="23">
+      <c r="AO5" s="4">
         <v>7</v>
       </c>
-      <c r="AP5" s="23">
+      <c r="AP5" s="4">
         <f>AO5/22*100</f>
         <v>31.818181818181817</v>
       </c>
       <c r="AQ5">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT5" s="4">
+        <v>29</v>
+      </c>
+      <c r="AU5" s="4">
+        <f>(AT5/36)*100</f>
+        <v>80.555555555555557</v>
+      </c>
+      <c r="AV5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="4">
+        <f>(AV5/36)*100</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="AX5" s="4">
+        <v>6</v>
+      </c>
+      <c r="AY5" s="4">
+        <f>(AX5/36)*100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AZ5" s="23">
+        <f>SUM(AT5,AV5,AX5)</f>
+        <v>36</v>
+      </c>
+      <c r="BA5" s="27"/>
+      <c r="BB5" s="28"/>
+      <c r="BC5" s="28"/>
+      <c r="BD5" s="28"/>
+      <c r="BH5" s="27"/>
+      <c r="BI5" s="28"/>
+      <c r="BJ5" s="28"/>
+      <c r="BK5" s="28"/>
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1422,35 +1688,71 @@
         <f>SUM(AB6,AD6,AF6)</f>
         <v>65</v>
       </c>
-      <c r="AJ6" s="23" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AK6" s="23">
+      <c r="AK6" s="4">
         <v>66</v>
       </c>
-      <c r="AL6" s="23">
+      <c r="AL6" s="4">
         <f>AK6/137*100</f>
         <v>48.175182481751825</v>
       </c>
-      <c r="AM6" s="23">
+      <c r="AM6" s="4">
         <v>48</v>
       </c>
-      <c r="AN6" s="23">
+      <c r="AN6" s="4">
         <f>AM6/137*100</f>
         <v>35.036496350364963</v>
       </c>
-      <c r="AO6" s="23">
+      <c r="AO6" s="4">
         <v>60</v>
       </c>
-      <c r="AP6" s="23">
+      <c r="AP6" s="4">
         <f>AO6/137*100</f>
         <v>43.79562043795621</v>
       </c>
       <c r="AQ6">
         <v>137</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>327</v>
+      </c>
+      <c r="AU6" s="4">
+        <f>(AT6/519)*100</f>
+        <v>63.005780346820806</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>33</v>
+      </c>
+      <c r="AW6" s="4">
+        <f>(AV6/519)*100</f>
+        <v>6.3583815028901727</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>159</v>
+      </c>
+      <c r="AY6" s="4">
+        <f>(AX6/519)*100</f>
+        <v>30.635838150289018</v>
+      </c>
+      <c r="AZ6" s="23">
+        <f>SUM(AT6,AV6,AX6)</f>
+        <v>519</v>
+      </c>
+      <c r="BA6" s="27"/>
+      <c r="BB6" s="28"/>
+      <c r="BC6" s="28"/>
+      <c r="BD6" s="28"/>
+      <c r="BH6" s="27"/>
+      <c r="BI6" s="28"/>
+      <c r="BJ6" s="28"/>
+      <c r="BK6" s="28"/>
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1494,8 +1796,16 @@
       <c r="AN7" s="23"/>
       <c r="AO7" s="23"/>
       <c r="AP7" s="23"/>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="BA7" s="27"/>
+      <c r="BB7" s="28"/>
+      <c r="BC7" s="28"/>
+      <c r="BD7" s="28"/>
+      <c r="BH7" s="27"/>
+      <c r="BI7" s="28"/>
+      <c r="BJ7" s="28"/>
+      <c r="BK7" s="28"/>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -1521,8 +1831,16 @@
         <v>17.83848498040923</v>
       </c>
       <c r="AD8" s="21"/>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="BA8" s="27"/>
+      <c r="BB8" s="28"/>
+      <c r="BC8" s="28"/>
+      <c r="BD8" s="28"/>
+      <c r="BH8" s="27"/>
+      <c r="BI8" s="28"/>
+      <c r="BJ8" s="28"/>
+      <c r="BK8" s="28"/>
+    </row>
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1547,8 +1865,16 @@
         <f t="shared" si="2"/>
         <v>7.5424466695690029</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="BA9" s="27"/>
+      <c r="BB9" s="28"/>
+      <c r="BC9" s="28"/>
+      <c r="BD9" s="28"/>
+      <c r="BH9" s="27"/>
+      <c r="BI9" s="28"/>
+      <c r="BJ9" s="28"/>
+      <c r="BK9" s="28"/>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -1573,8 +1899,16 @@
         <f t="shared" si="2"/>
         <v>0.54418807139747494</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="BA10" s="27"/>
+      <c r="BB10" s="28"/>
+      <c r="BC10" s="28"/>
+      <c r="BD10" s="28"/>
+      <c r="BH10" s="27"/>
+      <c r="BI10" s="28"/>
+      <c r="BJ10" s="28"/>
+      <c r="BK10" s="28"/>
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUM(B2:B10)</f>
         <v>137</v>
@@ -1587,16 +1921,42 @@
         <f>SUM(F2:F10)</f>
         <v>9188</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="BA11" s="27"/>
+      <c r="BB11" s="28"/>
+      <c r="BC11" s="28"/>
+      <c r="BD11" s="28"/>
+      <c r="BH11" s="27"/>
+      <c r="BI11" s="28"/>
+      <c r="BJ11" s="28"/>
+      <c r="BK11" s="28"/>
+    </row>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BA12" s="27"/>
+      <c r="BB12" s="28"/>
+      <c r="BC12" s="28"/>
+      <c r="BD12" s="28"/>
+      <c r="BH12" s="27"/>
+      <c r="BI12" s="28"/>
+      <c r="BJ12" s="28"/>
+      <c r="BK12" s="28"/>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="BA13" s="27"/>
+      <c r="BB13" s="28"/>
+      <c r="BC13" s="28"/>
+      <c r="BD13" s="28"/>
+      <c r="BH13" s="27"/>
+      <c r="BI13" s="28"/>
+      <c r="BJ13" s="28"/>
+      <c r="BK13" s="28"/>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1605,8 +1965,16 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="BA14" s="27"/>
+      <c r="BB14" s="28"/>
+      <c r="BC14" s="28"/>
+      <c r="BD14" s="28"/>
+      <c r="BH14" s="27"/>
+      <c r="BI14" s="28"/>
+      <c r="BJ14" s="28"/>
+      <c r="BK14" s="28"/>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1615,8 +1983,16 @@
       <c r="F15" s="10"/>
       <c r="G15" s="20"/>
       <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="BA15" s="27"/>
+      <c r="BB15" s="28"/>
+      <c r="BC15" s="28"/>
+      <c r="BD15" s="28"/>
+      <c r="BH15" s="27"/>
+      <c r="BI15" s="28"/>
+      <c r="BJ15" s="28"/>
+      <c r="BK15" s="28"/>
+    </row>
+    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1625,8 +2001,16 @@
       <c r="F16" s="10"/>
       <c r="G16" s="20"/>
       <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="BA16" s="27"/>
+      <c r="BB16" s="28"/>
+      <c r="BC16" s="29"/>
+      <c r="BD16" s="28"/>
+      <c r="BH16" s="27"/>
+      <c r="BI16" s="28"/>
+      <c r="BJ16" s="28"/>
+      <c r="BK16" s="28"/>
+    </row>
+    <row r="17" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1635,8 +2019,16 @@
       <c r="F17" s="10"/>
       <c r="G17" s="20"/>
       <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="BA17" s="27"/>
+      <c r="BB17" s="28"/>
+      <c r="BC17" s="28"/>
+      <c r="BD17" s="28"/>
+      <c r="BH17" s="27"/>
+      <c r="BI17" s="28"/>
+      <c r="BJ17" s="28"/>
+      <c r="BK17" s="28"/>
+    </row>
+    <row r="18" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1645,8 +2037,16 @@
       <c r="F18" s="10"/>
       <c r="G18" s="20"/>
       <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="BA18" s="27"/>
+      <c r="BB18" s="28"/>
+      <c r="BC18" s="28"/>
+      <c r="BD18" s="28"/>
+      <c r="BH18" s="27"/>
+      <c r="BI18" s="28"/>
+      <c r="BJ18" s="28"/>
+      <c r="BK18" s="28"/>
+    </row>
+    <row r="19" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1655,8 +2055,16 @@
       <c r="F19" s="10"/>
       <c r="G19" s="20"/>
       <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="BA19" s="27"/>
+      <c r="BB19" s="28"/>
+      <c r="BC19" s="28"/>
+      <c r="BD19" s="28"/>
+      <c r="BH19" s="27"/>
+      <c r="BI19" s="28"/>
+      <c r="BJ19" s="28"/>
+      <c r="BK19" s="28"/>
+    </row>
+    <row r="20" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1665,8 +2073,26 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BA20" s="27"/>
+      <c r="BB20" s="28"/>
+      <c r="BC20" s="28"/>
+      <c r="BD20" s="28"/>
+      <c r="BH20" s="27"/>
+      <c r="BI20" s="28"/>
+      <c r="BJ20" s="28"/>
+      <c r="BK20" s="28"/>
+    </row>
+    <row r="21" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BA21" s="27"/>
+      <c r="BB21" s="28"/>
+      <c r="BC21" s="28"/>
+      <c r="BD21" s="28"/>
+      <c r="BH21" s="27"/>
+      <c r="BI21" s="28"/>
+      <c r="BJ21" s="28"/>
+      <c r="BK21" s="28"/>
+    </row>
+    <row r="22" spans="1:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1691,8 +2117,16 @@
       <c r="H22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="BA22" s="27"/>
+      <c r="BB22" s="28"/>
+      <c r="BC22" s="29"/>
+      <c r="BD22" s="28"/>
+      <c r="BH22" s="27"/>
+      <c r="BI22" s="28"/>
+      <c r="BJ22" s="28"/>
+      <c r="BK22" s="28"/>
+    </row>
+    <row r="23" spans="1:63" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1721,8 +2155,16 @@
         <f>SUM(B23,D23,F23)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="BA23" s="27"/>
+      <c r="BB23" s="28"/>
+      <c r="BC23" s="28"/>
+      <c r="BD23" s="28"/>
+      <c r="BH23" s="27"/>
+      <c r="BI23" s="28"/>
+      <c r="BJ23" s="28"/>
+      <c r="BK23" s="28"/>
+    </row>
+    <row r="24" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
@@ -1751,8 +2193,16 @@
         <f t="shared" ref="H24:H26" si="6">SUM(B24,D24,F24)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="BA24" s="27"/>
+      <c r="BB24" s="28"/>
+      <c r="BC24" s="28"/>
+      <c r="BD24" s="28"/>
+      <c r="BH24" s="27"/>
+      <c r="BI24" s="28"/>
+      <c r="BJ24" s="28"/>
+      <c r="BK24" s="28"/>
+    </row>
+    <row r="25" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>8</v>
       </c>
@@ -1781,8 +2231,16 @@
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="BA25" s="27"/>
+      <c r="BB25" s="28"/>
+      <c r="BC25" s="28"/>
+      <c r="BD25" s="28"/>
+      <c r="BH25" s="27"/>
+      <c r="BI25" s="28"/>
+      <c r="BJ25" s="28"/>
+      <c r="BK25" s="28"/>
+    </row>
+    <row r="26" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
@@ -1811,8 +2269,16 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="BA26" s="27"/>
+      <c r="BB26" s="28"/>
+      <c r="BC26" s="28"/>
+      <c r="BD26" s="28"/>
+      <c r="BH26" s="27"/>
+      <c r="BI26" s="28"/>
+      <c r="BJ26" s="28"/>
+      <c r="BK26" s="28"/>
+    </row>
+    <row r="27" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
@@ -1841,6 +2307,574 @@
         <f>SUM(B27,D27,F27)</f>
         <v>69</v>
       </c>
+      <c r="BA27" s="27"/>
+      <c r="BB27" s="28"/>
+      <c r="BC27" s="28"/>
+      <c r="BD27" s="28"/>
+      <c r="BH27" s="27"/>
+      <c r="BI27" s="28"/>
+      <c r="BJ27" s="28"/>
+      <c r="BK27" s="28"/>
+    </row>
+    <row r="28" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BA28" s="27"/>
+      <c r="BB28" s="28"/>
+      <c r="BC28" s="28"/>
+      <c r="BD28" s="28"/>
+      <c r="BH28" s="27"/>
+      <c r="BI28" s="28"/>
+      <c r="BJ28" s="28"/>
+      <c r="BK28" s="28"/>
+    </row>
+    <row r="29" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BA29" s="27"/>
+      <c r="BB29" s="28"/>
+      <c r="BC29" s="28"/>
+      <c r="BD29" s="28"/>
+      <c r="BH29" s="27"/>
+      <c r="BI29" s="28"/>
+      <c r="BJ29" s="28"/>
+      <c r="BK29" s="28"/>
+    </row>
+    <row r="30" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BA30" s="27"/>
+      <c r="BB30" s="28"/>
+      <c r="BC30" s="28"/>
+      <c r="BD30" s="28"/>
+      <c r="BH30" s="27"/>
+      <c r="BI30" s="28"/>
+      <c r="BJ30" s="28"/>
+      <c r="BK30" s="28"/>
+    </row>
+    <row r="31" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BA31" s="27"/>
+      <c r="BB31" s="28"/>
+      <c r="BC31" s="29"/>
+      <c r="BD31" s="28"/>
+      <c r="BH31" s="27"/>
+      <c r="BI31" s="28"/>
+      <c r="BJ31" s="28"/>
+      <c r="BK31" s="28"/>
+    </row>
+    <row r="32" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BA32" s="27"/>
+      <c r="BB32" s="28"/>
+      <c r="BC32" s="28"/>
+      <c r="BD32" s="28"/>
+      <c r="BH32" s="27"/>
+      <c r="BI32" s="28"/>
+      <c r="BJ32" s="28"/>
+      <c r="BK32" s="28"/>
+    </row>
+    <row r="33" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA33" s="27"/>
+      <c r="BB33" s="28"/>
+      <c r="BC33" s="28"/>
+      <c r="BD33" s="28"/>
+      <c r="BH33" s="27"/>
+      <c r="BI33" s="28"/>
+      <c r="BJ33" s="28"/>
+      <c r="BK33" s="28"/>
+    </row>
+    <row r="34" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA34" s="27"/>
+      <c r="BB34" s="28"/>
+      <c r="BC34" s="28"/>
+      <c r="BD34" s="28"/>
+      <c r="BH34" s="27"/>
+      <c r="BI34" s="28"/>
+      <c r="BJ34" s="28"/>
+      <c r="BK34" s="28"/>
+    </row>
+    <row r="35" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA35" s="27"/>
+      <c r="BB35" s="28"/>
+      <c r="BC35" s="28"/>
+      <c r="BD35" s="28"/>
+      <c r="BH35" s="27"/>
+      <c r="BI35" s="28"/>
+      <c r="BJ35" s="28"/>
+      <c r="BK35" s="28"/>
+    </row>
+    <row r="36" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA36" s="27"/>
+      <c r="BB36" s="28"/>
+      <c r="BC36" s="28"/>
+      <c r="BD36" s="28"/>
+      <c r="BH36" s="27"/>
+      <c r="BI36" s="28"/>
+      <c r="BJ36" s="28"/>
+      <c r="BK36" s="28"/>
+    </row>
+    <row r="37" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA37" s="27"/>
+      <c r="BB37" s="28"/>
+      <c r="BC37" s="28"/>
+      <c r="BD37" s="28"/>
+      <c r="BH37" s="27"/>
+      <c r="BI37" s="28"/>
+      <c r="BJ37" s="28"/>
+      <c r="BK37" s="28"/>
+    </row>
+    <row r="38" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA38" s="27"/>
+      <c r="BB38" s="28"/>
+      <c r="BC38" s="28"/>
+      <c r="BD38" s="28"/>
+      <c r="BH38" s="27"/>
+      <c r="BI38" s="28"/>
+      <c r="BJ38" s="28"/>
+      <c r="BK38" s="28"/>
+    </row>
+    <row r="39" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA39" s="27"/>
+      <c r="BB39" s="28"/>
+      <c r="BC39" s="28"/>
+      <c r="BD39" s="28"/>
+      <c r="BH39" s="27"/>
+      <c r="BI39" s="28"/>
+      <c r="BJ39" s="28"/>
+      <c r="BK39" s="28"/>
+    </row>
+    <row r="40" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA40" s="27"/>
+      <c r="BB40" s="28"/>
+      <c r="BC40" s="28"/>
+      <c r="BD40" s="28"/>
+      <c r="BH40" s="27"/>
+      <c r="BI40" s="28"/>
+      <c r="BJ40" s="28"/>
+      <c r="BK40" s="28"/>
+    </row>
+    <row r="41" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA41" s="27"/>
+      <c r="BB41" s="28"/>
+      <c r="BC41" s="28"/>
+      <c r="BD41" s="28"/>
+      <c r="BH41" s="27"/>
+      <c r="BI41" s="28"/>
+      <c r="BJ41" s="28"/>
+      <c r="BK41" s="28"/>
+    </row>
+    <row r="42" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA42" s="27"/>
+      <c r="BB42" s="28"/>
+      <c r="BC42" s="28"/>
+      <c r="BD42" s="28"/>
+      <c r="BH42" s="27"/>
+      <c r="BI42" s="28"/>
+      <c r="BJ42" s="28"/>
+      <c r="BK42" s="28"/>
+    </row>
+    <row r="43" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA43" s="27"/>
+      <c r="BB43" s="28"/>
+      <c r="BC43" s="29"/>
+      <c r="BD43" s="28"/>
+      <c r="BH43" s="27"/>
+      <c r="BI43" s="28"/>
+      <c r="BJ43" s="28"/>
+      <c r="BK43" s="28"/>
+    </row>
+    <row r="44" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA44" s="27"/>
+      <c r="BB44" s="28"/>
+      <c r="BC44" s="28"/>
+      <c r="BD44" s="28"/>
+      <c r="BH44" s="27"/>
+      <c r="BI44" s="28"/>
+      <c r="BJ44" s="28"/>
+      <c r="BK44" s="28"/>
+    </row>
+    <row r="45" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA45" s="27"/>
+      <c r="BB45" s="28"/>
+      <c r="BC45" s="28"/>
+      <c r="BD45" s="28"/>
+      <c r="BH45" s="27"/>
+      <c r="BI45" s="28"/>
+      <c r="BJ45" s="28"/>
+      <c r="BK45" s="28"/>
+    </row>
+    <row r="46" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA46" s="27"/>
+      <c r="BB46" s="28"/>
+      <c r="BC46" s="28"/>
+      <c r="BD46" s="28"/>
+      <c r="BH46" s="27"/>
+      <c r="BI46" s="28"/>
+      <c r="BJ46" s="28"/>
+      <c r="BK46" s="28"/>
+    </row>
+    <row r="47" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA47" s="27"/>
+      <c r="BB47" s="28"/>
+      <c r="BC47" s="28"/>
+      <c r="BD47" s="28"/>
+      <c r="BH47" s="27"/>
+      <c r="BI47" s="28"/>
+      <c r="BJ47" s="28"/>
+      <c r="BK47" s="28"/>
+    </row>
+    <row r="48" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA48" s="27"/>
+      <c r="BB48" s="28"/>
+      <c r="BC48" s="28"/>
+      <c r="BD48" s="28"/>
+      <c r="BH48" s="27"/>
+      <c r="BI48" s="28"/>
+      <c r="BJ48" s="28"/>
+      <c r="BK48" s="28"/>
+    </row>
+    <row r="49" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA49" s="27"/>
+      <c r="BB49" s="28"/>
+      <c r="BC49" s="28"/>
+      <c r="BD49" s="28"/>
+      <c r="BH49" s="27"/>
+      <c r="BI49" s="28"/>
+      <c r="BJ49" s="28"/>
+      <c r="BK49" s="28"/>
+    </row>
+    <row r="50" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA50" s="27"/>
+      <c r="BB50" s="28"/>
+      <c r="BC50" s="28"/>
+      <c r="BD50" s="28"/>
+      <c r="BH50" s="27"/>
+      <c r="BI50" s="28"/>
+      <c r="BJ50" s="28"/>
+      <c r="BK50" s="28"/>
+    </row>
+    <row r="51" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA51" s="27"/>
+      <c r="BB51" s="28"/>
+      <c r="BC51" s="28"/>
+      <c r="BD51" s="28"/>
+      <c r="BH51" s="27"/>
+      <c r="BI51" s="28"/>
+      <c r="BJ51" s="28"/>
+      <c r="BK51" s="28"/>
+    </row>
+    <row r="52" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA52" s="27"/>
+      <c r="BB52" s="28"/>
+      <c r="BC52" s="28"/>
+      <c r="BD52" s="28"/>
+      <c r="BH52" s="27"/>
+      <c r="BI52" s="28"/>
+      <c r="BJ52" s="28"/>
+      <c r="BK52" s="28"/>
+    </row>
+    <row r="53" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA53" s="27"/>
+      <c r="BB53" s="28"/>
+      <c r="BC53" s="28"/>
+      <c r="BD53" s="28"/>
+      <c r="BH53" s="27"/>
+      <c r="BI53" s="28"/>
+      <c r="BJ53" s="28"/>
+      <c r="BK53" s="28"/>
+    </row>
+    <row r="54" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA54" s="27"/>
+      <c r="BB54" s="28"/>
+      <c r="BC54" s="28"/>
+      <c r="BD54" s="28"/>
+      <c r="BH54" s="27"/>
+      <c r="BI54" s="28"/>
+      <c r="BJ54" s="28"/>
+      <c r="BK54" s="28"/>
+    </row>
+    <row r="55" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA55" s="27"/>
+      <c r="BB55" s="28"/>
+      <c r="BC55" s="28"/>
+      <c r="BD55" s="28"/>
+      <c r="BH55" s="27"/>
+      <c r="BI55" s="28"/>
+      <c r="BJ55" s="28"/>
+      <c r="BK55" s="28"/>
+    </row>
+    <row r="56" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA56" s="27"/>
+      <c r="BB56" s="28"/>
+      <c r="BC56" s="28"/>
+      <c r="BD56" s="28"/>
+      <c r="BH56" s="27"/>
+      <c r="BI56" s="28"/>
+      <c r="BJ56" s="29"/>
+      <c r="BK56" s="28"/>
+    </row>
+    <row r="57" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA57" s="27"/>
+      <c r="BB57" s="28"/>
+      <c r="BC57" s="29"/>
+      <c r="BD57" s="28"/>
+      <c r="BH57" s="27"/>
+      <c r="BI57" s="28"/>
+      <c r="BJ57" s="29"/>
+      <c r="BK57" s="28"/>
+    </row>
+    <row r="58" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA58" s="27"/>
+      <c r="BB58" s="28"/>
+      <c r="BC58" s="28"/>
+      <c r="BD58" s="28"/>
+      <c r="BH58" s="27"/>
+      <c r="BI58" s="28"/>
+      <c r="BJ58" s="29"/>
+      <c r="BK58" s="28"/>
+    </row>
+    <row r="59" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA59" s="27"/>
+      <c r="BB59" s="28"/>
+      <c r="BC59" s="28"/>
+      <c r="BD59" s="28"/>
+      <c r="BH59" s="27"/>
+      <c r="BI59" s="28"/>
+      <c r="BJ59" s="29"/>
+      <c r="BK59" s="28"/>
+    </row>
+    <row r="60" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA60" s="27"/>
+      <c r="BB60" s="28"/>
+      <c r="BC60" s="28"/>
+      <c r="BD60" s="28"/>
+      <c r="BH60" s="27"/>
+      <c r="BI60" s="28"/>
+      <c r="BJ60" s="29"/>
+      <c r="BK60" s="28"/>
+    </row>
+    <row r="61" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA61" s="27"/>
+      <c r="BB61" s="28"/>
+      <c r="BC61" s="28"/>
+      <c r="BD61" s="28"/>
+      <c r="BH61" s="27"/>
+      <c r="BI61" s="28"/>
+      <c r="BJ61" s="29"/>
+      <c r="BK61" s="28"/>
+    </row>
+    <row r="62" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA62" s="27"/>
+      <c r="BB62" s="28"/>
+      <c r="BC62" s="28"/>
+      <c r="BD62" s="28"/>
+      <c r="BH62" s="27"/>
+      <c r="BI62" s="28"/>
+      <c r="BJ62" s="29"/>
+      <c r="BK62" s="28"/>
+    </row>
+    <row r="63" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA63" s="27"/>
+      <c r="BB63" s="28"/>
+      <c r="BC63" s="28"/>
+      <c r="BD63" s="28"/>
+      <c r="BH63" s="27"/>
+      <c r="BI63" s="28"/>
+      <c r="BJ63" s="28"/>
+      <c r="BK63" s="28"/>
+    </row>
+    <row r="64" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA64" s="27"/>
+      <c r="BB64" s="28"/>
+      <c r="BC64" s="28"/>
+      <c r="BD64" s="28"/>
+      <c r="BH64" s="27"/>
+      <c r="BI64" s="28"/>
+      <c r="BJ64" s="28"/>
+      <c r="BK64" s="28"/>
+    </row>
+    <row r="65" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA65" s="27"/>
+      <c r="BB65" s="28"/>
+      <c r="BC65" s="28"/>
+      <c r="BD65" s="28"/>
+      <c r="BH65" s="27"/>
+      <c r="BI65" s="28"/>
+      <c r="BJ65" s="28"/>
+      <c r="BK65" s="28"/>
+    </row>
+    <row r="66" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA66" s="27"/>
+      <c r="BB66" s="28"/>
+      <c r="BC66" s="28"/>
+      <c r="BD66" s="28"/>
+      <c r="BH66" s="27"/>
+      <c r="BI66" s="28"/>
+      <c r="BJ66" s="28"/>
+      <c r="BK66" s="28"/>
+    </row>
+    <row r="67" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA67" s="27"/>
+      <c r="BB67" s="28"/>
+      <c r="BC67" s="28"/>
+      <c r="BD67" s="28"/>
+      <c r="BH67" s="27"/>
+      <c r="BI67" s="28"/>
+      <c r="BJ67" s="28"/>
+      <c r="BK67" s="28"/>
+    </row>
+    <row r="68" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA68" s="27"/>
+      <c r="BB68" s="28"/>
+      <c r="BC68" s="28"/>
+      <c r="BD68" s="28"/>
+      <c r="BH68" s="27"/>
+      <c r="BI68" s="28"/>
+      <c r="BJ68" s="28"/>
+      <c r="BK68" s="28"/>
+    </row>
+    <row r="69" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA69" s="27"/>
+      <c r="BB69" s="28"/>
+      <c r="BC69" s="28"/>
+      <c r="BD69" s="28"/>
+      <c r="BH69" s="27"/>
+      <c r="BI69" s="28"/>
+      <c r="BJ69" s="28"/>
+      <c r="BK69" s="28"/>
+    </row>
+    <row r="70" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA70" s="27"/>
+      <c r="BB70" s="28"/>
+      <c r="BC70" s="28"/>
+      <c r="BD70" s="28"/>
+      <c r="BH70" s="27"/>
+      <c r="BI70" s="28"/>
+      <c r="BJ70" s="28"/>
+      <c r="BK70" s="28"/>
+    </row>
+    <row r="71" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA71" s="27"/>
+      <c r="BB71" s="28"/>
+      <c r="BC71" s="29"/>
+      <c r="BD71" s="28"/>
+      <c r="BH71" s="27"/>
+      <c r="BI71" s="28"/>
+      <c r="BJ71" s="28"/>
+      <c r="BK71" s="28"/>
+    </row>
+    <row r="72" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA72" s="27"/>
+      <c r="BB72" s="28"/>
+      <c r="BC72" s="28"/>
+      <c r="BD72" s="28"/>
+      <c r="BH72" s="27"/>
+      <c r="BI72" s="28"/>
+      <c r="BJ72" s="28"/>
+      <c r="BK72" s="28"/>
+    </row>
+    <row r="73" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA73" s="27"/>
+      <c r="BB73" s="28"/>
+      <c r="BC73" s="28"/>
+      <c r="BD73" s="28"/>
+      <c r="BH73" s="27"/>
+      <c r="BI73" s="28"/>
+      <c r="BJ73" s="28"/>
+      <c r="BK73" s="28"/>
+    </row>
+    <row r="74" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA74" s="27"/>
+      <c r="BB74" s="28"/>
+      <c r="BC74" s="28"/>
+      <c r="BD74" s="28"/>
+      <c r="BH74" s="27"/>
+      <c r="BI74" s="28"/>
+      <c r="BJ74" s="28"/>
+      <c r="BK74" s="28"/>
+    </row>
+    <row r="75" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA75" s="27"/>
+      <c r="BB75" s="28"/>
+      <c r="BC75" s="28"/>
+      <c r="BD75" s="28"/>
+      <c r="BH75" s="27"/>
+      <c r="BI75" s="28"/>
+      <c r="BJ75" s="28"/>
+      <c r="BK75" s="28"/>
+    </row>
+    <row r="76" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA76" s="27"/>
+      <c r="BB76" s="28"/>
+      <c r="BC76" s="28"/>
+      <c r="BD76" s="28"/>
+      <c r="BH76" s="27"/>
+      <c r="BI76" s="28"/>
+      <c r="BJ76" s="28"/>
+      <c r="BK76" s="28"/>
+    </row>
+    <row r="77" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA77" s="27"/>
+      <c r="BB77" s="28"/>
+      <c r="BC77" s="28"/>
+      <c r="BD77" s="28"/>
+      <c r="BH77" s="27"/>
+      <c r="BI77" s="28"/>
+      <c r="BJ77" s="28"/>
+      <c r="BK77" s="28"/>
+    </row>
+    <row r="78" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA78" s="27"/>
+      <c r="BB78" s="28"/>
+      <c r="BC78" s="28"/>
+      <c r="BD78" s="28"/>
+      <c r="BH78" s="27"/>
+      <c r="BI78" s="28"/>
+      <c r="BJ78" s="28"/>
+      <c r="BK78" s="28"/>
+    </row>
+    <row r="79" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA79" s="27"/>
+      <c r="BB79" s="28"/>
+      <c r="BC79" s="28"/>
+      <c r="BD79" s="28"/>
+      <c r="BH79" s="27"/>
+      <c r="BI79" s="28"/>
+      <c r="BJ79" s="28"/>
+      <c r="BK79" s="28"/>
+    </row>
+    <row r="80" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA80" s="27"/>
+      <c r="BB80" s="28"/>
+      <c r="BC80" s="28"/>
+      <c r="BD80" s="28"/>
+      <c r="BH80" s="27"/>
+      <c r="BI80" s="28"/>
+      <c r="BJ80" s="28"/>
+      <c r="BK80" s="28"/>
+    </row>
+    <row r="81" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA81" s="27"/>
+      <c r="BB81" s="28"/>
+      <c r="BC81" s="28"/>
+      <c r="BD81" s="28"/>
+      <c r="BH81" s="27"/>
+      <c r="BI81" s="28"/>
+      <c r="BJ81" s="28"/>
+      <c r="BK81" s="28"/>
+    </row>
+    <row r="82" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA82" s="27"/>
+      <c r="BB82" s="28"/>
+      <c r="BC82" s="28"/>
+      <c r="BD82" s="28"/>
+      <c r="BH82" s="27"/>
+      <c r="BI82" s="28"/>
+      <c r="BJ82" s="28"/>
+      <c r="BK82" s="28"/>
+    </row>
+    <row r="83" spans="53:63" x14ac:dyDescent="0.3">
+      <c r="BA83" s="27"/>
+      <c r="BB83" s="28"/>
+      <c r="BC83" s="29"/>
+      <c r="BD83" s="28"/>
+      <c r="BH83" s="26"/>
+      <c r="BI83" s="26"/>
+      <c r="BJ83" s="26"/>
+      <c r="BK83" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
